--- a/dist/assets/BOs/Hades.xlsx
+++ b/dist/assets/BOs/Hades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDE1D7-0B17-446C-A890-B7467B9716E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2D45A8-3D0B-4E0F-873B-71482B231DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="5" r:id="rId1"/>
@@ -823,9 +823,6 @@
     <t>Depending on your gameplan distribute villagers accordingly</t>
   </si>
   <si>
-    <t>2TC Hades VOE - By Motoba</t>
-  </si>
-  <si>
     <t>0 / 2 / 2 / 0</t>
   </si>
   <si>
@@ -1069,10 +1066,13 @@
     <t>*Note: you can also use market to advance faster, but have in mind that is not optimal, and you can use your exces ressources to produce units such as archers while your gathering food needed for heroic!</t>
   </si>
   <si>
-    <t>2TC VoE (no herding) - By Motoba</t>
-  </si>
-  <si>
-    <t>Fast heroic (with VOE) - By Motoba</t>
+    <t>Fast heroic (with VOE) - By Motaba</t>
+  </si>
+  <si>
+    <t>2TC VoE (no herding) - By Motaba</t>
+  </si>
+  <si>
+    <t>2TC Hades VOE - By Motaba</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1468,6 +1468,35 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1486,149 +1515,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1853,20 +1739,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="1" t="s">
@@ -1925,12 +1811,12 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
@@ -1953,12 +1839,12 @@
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="1" t="s">
@@ -2000,20 +1886,20 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="9" t="s">
@@ -2078,12 +1964,12 @@
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:4" ht="156.75">
       <c r="A10" s="12"/>
@@ -2106,12 +1992,12 @@
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="8"/>
@@ -2131,27 +2017,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946A14CF-AEE9-4BE1-A408-B9C1A2B1DD8D}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="16" t="s">
@@ -2214,12 +2100,12 @@
       <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="15"/>
@@ -2269,12 +2155,12 @@
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="16" t="s">
@@ -2328,10 +2214,10 @@
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="47"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="19"/>
@@ -2381,242 +2267,212 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="85.5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="C4" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" ht="99.75">
+      <c r="A5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="63"/>
-    </row>
-    <row r="5" spans="1:4" ht="99.75">
-      <c r="A5" s="60" t="s">
+      <c r="B5" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="C5" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="D5" s="27"/>
+    </row>
+    <row r="6" spans="1:4" ht="185.25">
+      <c r="A6" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="59"/>
-    </row>
-    <row r="6" spans="1:4" ht="185.25">
-      <c r="A6" s="60" t="s">
+      <c r="B6" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="C6" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="D6" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="78" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="57">
+      <c r="A7" s="28" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="57">
-      <c r="A7" s="60" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="64" t="s">
+      <c r="D7" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="63" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="57" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="46" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="71"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.5">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="69" t="s">
+    </row>
+    <row r="11" spans="1:4" ht="42.75">
+      <c r="A11" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="48"/>
-    </row>
-    <row r="11" spans="1:4" ht="42.75">
-      <c r="A11" s="61" t="s">
+      <c r="B11" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="C11" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="D11" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="67" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="57" t="s">
+      <c r="B12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="C12" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="156.75">
+      <c r="A17" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-    </row>
-    <row r="17" spans="1:4" ht="156.75">
-      <c r="A17" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="B17" s="79" t="s">
+      <c r="C17" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="D17" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="66" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="99.75">
+      <c r="A18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="99.75">
-      <c r="A18" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66" t="s">
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="58"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="54" t="s">
+      <c r="B19" s="26"/>
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="75">
+      <c r="A20" s="29"/>
+      <c r="C20" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="58"/>
-    </row>
-    <row r="20" spans="1:4" ht="75">
-      <c r="A20" s="61"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="72"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="19"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="74"/>
+      <c r="A23" s="19"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="53"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="A25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="53"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2633,259 +2489,230 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAA59EF-F675-4F5D-83AF-A6BB261799DF}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="185.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="C4" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="97" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="185.25">
+      <c r="A5" s="28" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="185.25">
-      <c r="A5" s="94" t="s">
+      <c r="B5" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="C5" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="D5" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="93" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="57">
-      <c r="A6" s="94" t="s">
+      <c r="B6" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="104" t="s">
+      <c r="D6" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="91" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
-      <c r="A7" s="94" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="97"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75">
-      <c r="A8" s="46" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" ht="19.5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="57">
+      <c r="A11" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75">
-      <c r="A9" s="106"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-    </row>
-    <row r="10" spans="1:4" ht="19.5">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="103" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="80"/>
-    </row>
-    <row r="11" spans="1:4" ht="57">
-      <c r="A11" s="95" t="s">
+      <c r="B11" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="C11" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="D11" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="101" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="91" t="s">
+      <c r="B12" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="C12" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="41"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="102" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="80"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75">
-      <c r="A15" s="46" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-    </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="88" t="s">
+      <c r="B17" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="C17" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="D17" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="92" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.25">
-      <c r="A18" s="92" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="99"/>
-      <c r="C18" s="92" t="s">
+      <c r="D18" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="92" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25">
-      <c r="A19" s="88" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="80" t="s">
+      <c r="D19" s="26"/>
+    </row>
+    <row r="20" spans="1:4" ht="216">
+      <c r="A20" s="29"/>
+      <c r="C20" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="92"/>
-    </row>
-    <row r="20" spans="1:4" ht="216">
-      <c r="A20" s="95"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="108" t="s">
+      <c r="D20" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="110" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="107"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
+      <c r="A21" s="40"/>
     </row>
     <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="84"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="80"/>
+      <c r="A22" s="19"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="84"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="109"/>
+      <c r="A23" s="19"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="86"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="85"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="86"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
+      <c r="A27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="85"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
+      <c r="A28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
